--- a/lab1/Dohoyan_fb-33_Tereshchenko_fb-33_cp1/results_nospace.xlsx
+++ b/lab1/Dohoyan_fb-33_Tereshchenko_fb-33_cp1/results_nospace.xlsx
@@ -24,22 +24,85 @@
     <t>Частота</t>
   </si>
   <si>
-    <t>с</t>
+    <t>п</t>
+  </si>
+  <si>
+    <t>р</t>
   </si>
   <si>
     <t>о</t>
   </si>
   <si>
-    <t>т</t>
+    <t>с</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>у</t>
   </si>
   <si>
     <t>в</t>
   </si>
   <si>
+    <t>ш</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>ы</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
     <t>е</t>
   </si>
   <si>
-    <t>у</t>
+    <t>б</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>й</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>ц</t>
+  </si>
+  <si>
+    <t>х</t>
   </si>
   <si>
     <t>ю</t>
@@ -48,73 +111,10 @@
     <t>щ</t>
   </si>
   <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t>й</t>
-  </si>
-  <si>
-    <t>з</t>
-  </si>
-  <si>
-    <t>н</t>
-  </si>
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>ч</t>
-  </si>
-  <si>
-    <t>п</t>
-  </si>
-  <si>
-    <t>р</t>
-  </si>
-  <si>
-    <t>к</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>ы</t>
-  </si>
-  <si>
-    <t>х</t>
-  </si>
-  <si>
-    <t>б</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>ж</t>
+    <t>э</t>
   </si>
   <si>
     <t>ф</t>
-  </si>
-  <si>
-    <t>д</t>
-  </si>
-  <si>
-    <t>ь</t>
-  </si>
-  <si>
-    <t>ц</t>
-  </si>
-  <si>
-    <t>ш</t>
-  </si>
-  <si>
-    <t>г</t>
-  </si>
-  <si>
-    <t>э</t>
   </si>
   <si>
     <t>ё</t>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.05340839591842958</v>
+        <v>0.03283336918473904</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.09421777347555242</v>
+        <v>0.0414963724895868</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.06360099226954764</v>
+        <v>0.1340712204470344</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.05216268531993366</v>
+        <v>0.04957271642841778</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.07499083035867063</v>
+        <v>0.07174844046385201</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.01400628300435569</v>
+        <v>0.02733832645638188</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.003830178242580003</v>
+        <v>0.04356923558284608</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.002545025480167315</v>
+        <v>0.005827483035766666</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.09411789744571487</v>
+        <v>0.05418777010774977</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02412420395654141</v>
+        <v>0.01939886970295481</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02800515405844514</v>
+        <v>0.03205115669671666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.08266614310061786</v>
+        <v>0.07163110859064865</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.09929900950932043</v>
+        <v>0.01136163638852494</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -604,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.01143510392824893</v>
+        <v>0.02565656960713378</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02798871541160466</v>
+        <v>0.05540019946418445</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -620,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.05218510646948903</v>
+        <v>0.02907874924223165</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.02670120670785734</v>
+        <v>0.04798873614017247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02545242544425112</v>
+        <v>0.08105676907131823</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -644,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.02541999816183634</v>
+        <v>0.02154995404501633</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -652,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01020736730914863</v>
+        <v>0.03156227389170268</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -660,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01274212194394702</v>
+        <v>0.01106830670551655</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -668,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.0254517901342283</v>
+        <v>0.01988775250796879</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -676,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01909225739204388</v>
+        <v>0.02018108219097718</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -684,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.0102140645356392</v>
+        <v>0.01357138666718814</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.006374939010237809</v>
+        <v>0.02043530124958445</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -700,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.02035843026752482</v>
+        <v>0.001271095293036353</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -708,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.007628855696528497</v>
+        <v>0.008858556426853355</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -716,7 +716,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01016527802013679</v>
+        <v>0.009014998924457829</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.008895107985762278</v>
+        <v>0.004047949625515771</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01145387204517308</v>
+        <v>0.003774175254707941</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -740,7 +740,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.001258787396465643</v>
+        <v>0.0005084381172145413</v>
       </c>
     </row>
   </sheetData>
@@ -758,97 +758,97 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>33</v>
@@ -862,85 +862,85 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.00086</v>
+        <v>0.000508</v>
       </c>
       <c r="C2">
-        <v>0.001268</v>
+        <v>0.001995</v>
       </c>
       <c r="D2">
-        <v>0.007341</v>
+        <v>0.005319</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="F2">
-        <v>0.007881000000000001</v>
+        <v>0.00178</v>
       </c>
       <c r="G2">
-        <v>0.003826</v>
+        <v>0.00176</v>
       </c>
       <c r="H2">
-        <v>0.005228</v>
+        <v>0.001995</v>
       </c>
       <c r="I2">
-        <v>0.008388</v>
+        <v>0.006043</v>
       </c>
       <c r="J2">
-        <v>0.001097</v>
+        <v>0.001271</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="L2">
-        <v>0.009284000000000001</v>
+        <v>0.007079</v>
       </c>
       <c r="M2">
-        <v>0.005089</v>
+        <v>0.009093</v>
       </c>
       <c r="N2">
-        <v>0.00406</v>
+        <v>0.002777</v>
       </c>
       <c r="O2">
-        <v>0.013609</v>
+        <v>0.004537</v>
       </c>
       <c r="P2">
-        <v>0.001228</v>
+        <v>0.001525</v>
       </c>
       <c r="Q2">
-        <v>0.004637</v>
+        <v>0.003012</v>
       </c>
       <c r="R2">
-        <v>0.001226</v>
+        <v>0.001017</v>
       </c>
       <c r="S2">
-        <v>0.003765</v>
+        <v>0.006062</v>
       </c>
       <c r="T2">
-        <v>0.001762</v>
+        <v>0.006297</v>
       </c>
       <c r="U2">
-        <v>0.000365</v>
+        <v>0.000508</v>
       </c>
       <c r="V2">
-        <v>0.000374</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="X2">
-        <v>0.007623</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003934</v>
+        <v>0.00174</v>
       </c>
       <c r="Z2">
-        <v>0.002522</v>
+        <v>0.000508</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00012</v>
+        <v>0.000489</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="AF2">
-        <v>0.003814</v>
+        <v>0.002034</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00127</v>
+        <v>0.002034</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1011,25 +1011,25 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="P3">
-        <v>0.002541</v>
+        <v>0.004224</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.00511</v>
+        <v>0.00178</v>
       </c>
       <c r="S3">
-        <v>0.00127</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002552</v>
+        <v>0.001252</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.010013</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.001232</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1076,70 +1076,70 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.006718</v>
+        <v>0.005065</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D4">
-        <v>0.000394</v>
+        <v>0.000254</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="F4">
-        <v>9.6E-05</v>
+        <v>0.000743</v>
       </c>
       <c r="G4">
-        <v>0.006349</v>
+        <v>0.004987</v>
       </c>
       <c r="H4">
-        <v>5.2E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000293</v>
+        <v>0.000508</v>
       </c>
       <c r="J4">
-        <v>0.006789</v>
+        <v>0.00354</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001424</v>
+        <v>0.000508</v>
       </c>
       <c r="M4">
-        <v>0.005101</v>
+        <v>0.000508</v>
       </c>
       <c r="N4">
-        <v>9.8E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O4">
-        <v>0.007953999999999999</v>
+        <v>0.001271</v>
       </c>
       <c r="P4">
-        <v>0.003049</v>
+        <v>0.009035</v>
       </c>
       <c r="Q4">
-        <v>0.000826</v>
+        <v>0.001271</v>
       </c>
       <c r="R4">
-        <v>0.000491</v>
+        <v>0.001232</v>
       </c>
       <c r="S4">
-        <v>0.00176</v>
+        <v>0.00526</v>
       </c>
       <c r="T4">
-        <v>0.000194</v>
+        <v>0.000763</v>
       </c>
       <c r="U4">
-        <v>0.002687</v>
+        <v>0.001525</v>
       </c>
       <c r="V4">
-        <v>0.000148</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1148,28 +1148,28 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>4.9E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="Z4">
-        <v>0.001277</v>
+        <v>0.000508</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006368</v>
+        <v>0.004556</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>4.7E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>0.003817</v>
+        <v>0.000254</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="P5">
-        <v>0.005091</v>
+        <v>0.012301</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="R5">
-        <v>0.002546</v>
+        <v>0.00174</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1290,25 +1290,25 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.00637</v>
+        <v>0.006316</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="E6">
-        <v>0.001279</v>
+        <v>0.000508</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.005083</v>
+        <v>0.006043</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1317,46 +1317,46 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.003266</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002544</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="N6">
-        <v>0.001269</v>
+        <v>0.000254</v>
       </c>
       <c r="O6">
-        <v>0.001266</v>
+        <v>0.002777</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.006043</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001269</v>
+        <v>0.000254</v>
       </c>
       <c r="S6">
-        <v>0.001279</v>
+        <v>0.000254</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.002796</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1371,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001271</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1397,85 +1397,85 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>0.003228</v>
+        <v>0.000254</v>
       </c>
       <c r="C7">
-        <v>0.001275</v>
+        <v>0.003774</v>
       </c>
       <c r="D7">
-        <v>0.002043</v>
+        <v>0.003246</v>
       </c>
       <c r="E7">
-        <v>0.00254</v>
+        <v>0.005045</v>
       </c>
       <c r="F7">
-        <v>0.002739</v>
+        <v>0.002542</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="H7">
-        <v>9.8E-05</v>
+        <v>0.001525</v>
       </c>
       <c r="I7">
-        <v>0.000586</v>
+        <v>0.003305</v>
       </c>
       <c r="J7">
-        <v>0.000877</v>
+        <v>0.001271</v>
       </c>
       <c r="K7">
-        <v>0.006333</v>
+        <v>0.001232</v>
       </c>
       <c r="L7">
-        <v>0.000291</v>
+        <v>0.002268</v>
       </c>
       <c r="M7">
-        <v>0.002546</v>
+        <v>0.00925</v>
       </c>
       <c r="N7">
-        <v>0.001476</v>
+        <v>0.005319</v>
       </c>
       <c r="O7">
-        <v>0.019757</v>
+        <v>0.011049</v>
       </c>
       <c r="P7">
-        <v>0.0009779999999999999</v>
+        <v>0.001506</v>
       </c>
       <c r="Q7">
-        <v>0.00166</v>
+        <v>0.003774</v>
       </c>
       <c r="R7">
-        <v>0.007329</v>
+        <v>0.006571</v>
       </c>
       <c r="S7">
-        <v>0.0086</v>
+        <v>0.005534</v>
       </c>
       <c r="T7">
-        <v>0.009308</v>
+        <v>0.005026</v>
       </c>
       <c r="U7">
-        <v>0.00029</v>
+        <v>0.001017</v>
       </c>
       <c r="V7">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.001372</v>
+        <v>0.002484</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.001252</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>9.8E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001267</v>
+        <v>0.000508</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1504,13 +1504,13 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="G8">
-        <v>0.006381</v>
+        <v>0.0053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001277</v>
+        <v>0.002034</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002556</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0.01527</v>
+        <v>0.0053</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D9">
-        <v>0.005098</v>
+        <v>0.002014</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.002268</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="J9">
-        <v>0.001271</v>
+        <v>0.000763</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1647,31 +1647,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="O9">
-        <v>0.001266</v>
+        <v>0.00178</v>
       </c>
       <c r="P9">
-        <v>0.00256</v>
+        <v>0.000763</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.001268</v>
+        <v>0.000724</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.001506</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.001273</v>
+        <v>0.000508</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.001506</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1721,79 +1721,79 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.001629</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.001995</v>
       </c>
       <c r="D10">
-        <v>0.009479</v>
+        <v>0.005026</v>
       </c>
       <c r="E10">
-        <v>0.001274</v>
+        <v>0.000743</v>
       </c>
       <c r="F10">
-        <v>0.003</v>
+        <v>0.002777</v>
       </c>
       <c r="G10">
-        <v>0.001266</v>
+        <v>0.002034</v>
       </c>
       <c r="H10">
-        <v>0.000232</v>
+        <v>0.000254</v>
       </c>
       <c r="I10">
-        <v>0.010291</v>
+        <v>0.002288</v>
       </c>
       <c r="J10">
-        <v>0.009721</v>
+        <v>0.001017</v>
       </c>
       <c r="K10">
-        <v>0.008902</v>
+        <v>0.001017</v>
       </c>
       <c r="L10">
-        <v>0.00324</v>
+        <v>0.002542</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.005828</v>
       </c>
       <c r="N10">
-        <v>0.00428</v>
+        <v>0.002034</v>
       </c>
       <c r="O10">
-        <v>0.00545</v>
+        <v>0.00528</v>
       </c>
       <c r="P10">
-        <v>0.003595</v>
+        <v>0.001525</v>
       </c>
       <c r="Q10">
-        <v>0.003951</v>
+        <v>0.002523</v>
       </c>
       <c r="R10">
-        <v>0.003595</v>
+        <v>0.002503</v>
       </c>
       <c r="S10">
-        <v>0.0036</v>
+        <v>0.005065</v>
       </c>
       <c r="T10">
-        <v>0.004752</v>
+        <v>0.003716</v>
       </c>
       <c r="U10">
-        <v>0.000697</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.000703</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.001275</v>
+        <v>0.00178</v>
       </c>
       <c r="X10">
-        <v>0.001271</v>
+        <v>0.000254</v>
       </c>
       <c r="Y10">
-        <v>0.002765</v>
+        <v>0.00176</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.000233</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="AF10">
-        <v>0.008920000000000001</v>
+        <v>0.001232</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1825,82 +1825,82 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>0.001363</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="D11">
-        <v>0.001565</v>
+        <v>0.000508</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.000392</v>
+        <v>0.000508</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.000195</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001178</v>
+        <v>0.000254</v>
       </c>
       <c r="J11">
-        <v>0.001761</v>
+        <v>0.000508</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.000583</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.000387</v>
+        <v>0.000254</v>
       </c>
       <c r="O11">
-        <v>0.003894</v>
+        <v>0.001995</v>
       </c>
       <c r="P11">
-        <v>0.001948</v>
+        <v>0.000763</v>
       </c>
       <c r="Q11">
-        <v>0.003324</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="R11">
-        <v>0.001962</v>
+        <v>0.000254</v>
       </c>
       <c r="S11">
-        <v>0.001949</v>
+        <v>0.001486</v>
       </c>
       <c r="T11">
-        <v>0.000787</v>
+        <v>0.000763</v>
       </c>
       <c r="U11">
-        <v>0.000592</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.000581</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Y11">
-        <v>0.000196</v>
+        <v>0.000254</v>
       </c>
       <c r="Z11">
-        <v>0.001275</v>
+        <v>0.000254</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1912,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.000192</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1932,67 +1932,67 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.007631</v>
+        <v>0.006297</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="G12">
-        <v>0.001268</v>
+        <v>0.000763</v>
       </c>
       <c r="H12">
-        <v>0.002561</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.005097</v>
+        <v>0.002523</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="P12">
-        <v>0.002532</v>
+        <v>0.012868</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.002014</v>
       </c>
       <c r="S12">
-        <v>0.001259</v>
+        <v>0.000508</v>
       </c>
       <c r="T12">
-        <v>0.006355</v>
+        <v>0.001017</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.002014</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2039,79 +2039,79 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001283</v>
+        <v>0.003305</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="G13">
-        <v>0.003823</v>
+        <v>0.005984</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="J13">
-        <v>0.006345</v>
+        <v>0.004028</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.001252</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.001261</v>
+        <v>0.001017</v>
       </c>
       <c r="P13">
-        <v>0.003814</v>
+        <v>0.01189</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.003031</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.00174</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2120,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="AC13">
-        <v>0.005097</v>
+        <v>0.005749</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>0.001975</v>
       </c>
       <c r="AF13">
-        <v>0.003829</v>
+        <v>0.001271</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2146,79 +2146,79 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.001705</v>
+        <v>0.003305</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D14">
-        <v>0.000497</v>
+        <v>0.000508</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="F14">
-        <v>0.000123</v>
+        <v>0.000743</v>
       </c>
       <c r="G14">
-        <v>0.003799</v>
+        <v>0.004068</v>
       </c>
       <c r="H14">
-        <v>6.2E-05</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.000368</v>
+        <v>0.000763</v>
       </c>
       <c r="J14">
-        <v>0.004365</v>
+        <v>0.004811</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.001452</v>
+        <v>0.000763</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="N14">
-        <v>0.000121</v>
+        <v>0.001017</v>
       </c>
       <c r="O14">
-        <v>0.000429</v>
+        <v>0.003266</v>
       </c>
       <c r="P14">
-        <v>0.001895</v>
+        <v>0.004283</v>
       </c>
       <c r="Q14">
-        <v>0.001047</v>
+        <v>0.000763</v>
       </c>
       <c r="R14">
-        <v>0.000606</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.000607</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="T14">
-        <v>0.000247</v>
+        <v>0.000254</v>
       </c>
       <c r="U14">
-        <v>0.000181</v>
+        <v>0.00178</v>
       </c>
       <c r="V14">
-        <v>0.000186</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>6.2E-05</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.001279</v>
+        <v>0.000508</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AD14">
-        <v>6.1E-05</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2253,67 +2253,67 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>0.012719</v>
+        <v>0.012907</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="G15">
-        <v>0.002541</v>
+        <v>0.011792</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="J15">
-        <v>0.021655</v>
+        <v>0.006786</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="O15">
-        <v>0.011432</v>
+        <v>0.006551</v>
       </c>
       <c r="P15">
-        <v>0.011461</v>
+        <v>0.014295</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.00176</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.001284</v>
+        <v>0.000254</v>
       </c>
       <c r="T15">
-        <v>0.002531</v>
+        <v>0.001252</v>
       </c>
       <c r="U15">
-        <v>0.001285</v>
+        <v>0.003305</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.016499</v>
+        <v>0.004283</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="AF15">
-        <v>0.001261</v>
+        <v>0.002034</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2360,100 +2360,100 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0.000514</v>
+        <v>0.000254</v>
       </c>
       <c r="C16">
-        <v>0.010199</v>
+        <v>0.006571</v>
       </c>
       <c r="D16">
-        <v>0.013321</v>
+        <v>0.010814</v>
       </c>
       <c r="E16">
-        <v>0.002544</v>
+        <v>0.007294</v>
       </c>
       <c r="F16">
-        <v>0.002706</v>
+        <v>0.011069</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.005084</v>
       </c>
       <c r="H16">
-        <v>0.001353</v>
+        <v>0.003559</v>
       </c>
       <c r="I16">
-        <v>0.004257</v>
+        <v>0.004478</v>
       </c>
       <c r="J16">
-        <v>0.000663</v>
+        <v>0.003266</v>
       </c>
       <c r="K16">
-        <v>0.002546</v>
+        <v>0.004263</v>
       </c>
       <c r="L16">
-        <v>0.001491</v>
+        <v>0.005573</v>
       </c>
       <c r="M16">
-        <v>0.007619</v>
+        <v>0.007764</v>
       </c>
       <c r="N16">
-        <v>0.002708</v>
+        <v>0.007803</v>
       </c>
       <c r="O16">
-        <v>0.001786</v>
+        <v>0.012125</v>
       </c>
       <c r="P16">
-        <v>0.004554</v>
+        <v>0.003305</v>
       </c>
       <c r="Q16">
-        <v>0.001249</v>
+        <v>0.004537</v>
       </c>
       <c r="R16">
-        <v>0.009646</v>
+        <v>0.007803</v>
       </c>
       <c r="S16">
-        <v>0.014711</v>
+        <v>0.01056</v>
       </c>
       <c r="T16">
-        <v>0.006675</v>
+        <v>0.009093</v>
       </c>
       <c r="U16">
-        <v>0.000218</v>
+        <v>0.000763</v>
       </c>
       <c r="V16">
-        <v>0.000221</v>
+        <v>0.000254</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0.002796</v>
+      </c>
+      <c r="Z16">
+        <v>0.00178</v>
+      </c>
+      <c r="AA16">
+        <v>0.000763</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.000489</v>
+      </c>
+      <c r="AE16">
+        <v>0.000235</v>
+      </c>
+      <c r="AF16">
         <v>0.001271</v>
-      </c>
-      <c r="Y16">
-        <v>7.3E-05</v>
-      </c>
-      <c r="Z16">
-        <v>0.001281</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>7.2E-05</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0.00254</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002542</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.001259</v>
+        <v>0.002034</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2494,16 +2494,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.00178</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="M17">
-        <v>0.001283</v>
+        <v>0.00178</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2512,13 +2512,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.017797</v>
+        <v>0.015664</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0.00765</v>
+        <v>0.006512</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>0.001252</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>0.022909</v>
+        <v>0.013044</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2586,61 +2586,61 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003817</v>
+        <v>0.000508</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="G18">
-        <v>0.007639</v>
+        <v>0.006023</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="J18">
-        <v>0.001259</v>
+        <v>0.004244</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.001273</v>
+        <v>0.000763</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.002551</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.002014</v>
       </c>
       <c r="P18">
-        <v>0.008920000000000001</v>
+        <v>0.006805</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.001252</v>
       </c>
       <c r="U18">
-        <v>0.001274</v>
+        <v>0.001525</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.002544</v>
+        <v>0.000763</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -2681,100 +2681,100 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>8.6E-05</v>
+        <v>0.002014</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.899999999999999E-05</v>
+        <v>0.002757</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.5E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="G19">
-        <v>0.001266</v>
+        <v>0.004791</v>
       </c>
       <c r="H19">
-        <v>1.3E-05</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.4E-05</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001384</v>
+        <v>0.001017</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.6E-05</v>
+        <v>0.002014</v>
       </c>
       <c r="M19">
-        <v>0.003814</v>
+        <v>0.003481</v>
       </c>
       <c r="N19">
-        <v>2.4E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O19">
-        <v>0.001358</v>
+        <v>0.001252</v>
       </c>
       <c r="P19">
-        <v>0.009037999999999999</v>
+        <v>0.004283</v>
       </c>
       <c r="Q19">
-        <v>0.002741</v>
+        <v>0.005593</v>
       </c>
       <c r="R19">
-        <v>0.000123</v>
+        <v>0.001017</v>
       </c>
       <c r="S19">
-        <v>0.001394</v>
+        <v>0.001232</v>
       </c>
       <c r="T19">
-        <v>0.024202</v>
+        <v>0.009309</v>
       </c>
       <c r="U19">
-        <v>0.001311</v>
+        <v>0.000763</v>
       </c>
       <c r="V19">
-        <v>0.002576</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>1.2E-05</v>
+        <v>0.000489</v>
       </c>
       <c r="Z19">
-        <v>0.00254</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.001467</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.002523</v>
       </c>
       <c r="AD19">
-        <v>1.3E-05</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AF19">
-        <v>0.001277</v>
+        <v>0.004068</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2788,79 +2788,79 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>0.007324</v>
+        <v>0.004732</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="D20">
-        <v>0.008697</v>
+        <v>0.003246</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.000268</v>
+        <v>0.000254</v>
       </c>
       <c r="G20">
-        <v>0.002539</v>
+        <v>0.00526</v>
       </c>
       <c r="H20">
-        <v>0.000129</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.000808</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.015192</v>
+        <v>0.004028</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.00167</v>
+        <v>0.001017</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.000269</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.003503</v>
+        <v>0.002503</v>
       </c>
       <c r="P20">
-        <v>0.00771</v>
+        <v>0.016173</v>
       </c>
       <c r="Q20">
-        <v>0.002282</v>
+        <v>0.000254</v>
       </c>
       <c r="R20">
-        <v>0.005163</v>
+        <v>0.003774</v>
       </c>
       <c r="S20">
-        <v>0.002627</v>
+        <v>0.000508</v>
       </c>
       <c r="T20">
-        <v>0.000538</v>
+        <v>0.000254</v>
       </c>
       <c r="U20">
-        <v>0.001681</v>
+        <v>0.00178</v>
       </c>
       <c r="V20">
-        <v>0.000407</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.00013</v>
+        <v>0.000254</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2869,19 +2869,19 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.001271</v>
       </c>
       <c r="AC20">
-        <v>0.002532</v>
+        <v>0.007822000000000001</v>
       </c>
       <c r="AD20">
-        <v>0.000132</v>
+        <v>0.000508</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2898,82 +2898,82 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.002014</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="G21">
-        <v>0.00127</v>
+        <v>0.000489</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001995</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="L21">
-        <v>0.001274</v>
+        <v>0.001271</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.001271</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.002288</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.00178</v>
       </c>
       <c r="R21">
-        <v>0.001274</v>
+        <v>0.000763</v>
       </c>
       <c r="S21">
-        <v>0.002537</v>
+        <v>0.001271</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.001271</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.002548</v>
+        <v>0.001506</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AA21">
-        <v>0.001274</v>
+        <v>0.000254</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.00383</v>
+        <v>0.003305</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00254</v>
+        <v>0.000254</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.001284</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.002551</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3109,79 +3109,79 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.000688</v>
+        <v>0.000254</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="D23">
-        <v>0.000785</v>
+        <v>0.000254</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.000196</v>
+        <v>0.000254</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9.6E-05</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.000589</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.00088</v>
+        <v>0.000254</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.000296</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="N23">
-        <v>0.000198</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.000687</v>
+        <v>0.000254</v>
       </c>
       <c r="P23">
-        <v>0.0009810000000000001</v>
+        <v>0.004283</v>
       </c>
       <c r="Q23">
-        <v>0.001678</v>
+        <v>0.000254</v>
       </c>
       <c r="R23">
-        <v>0.000975</v>
+        <v>0.000254</v>
       </c>
       <c r="S23">
-        <v>0.0009790000000000001</v>
+        <v>0.000508</v>
       </c>
       <c r="T23">
-        <v>0.000396</v>
+        <v>0.000508</v>
       </c>
       <c r="U23">
-        <v>0.000294</v>
+        <v>0.000763</v>
       </c>
       <c r="V23">
-        <v>0.000294</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>9.899999999999999E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>9.8E-05</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001271</v>
+        <v>0.000254</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.008894000000000001</v>
+        <v>0.000254</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3323,70 +3323,70 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.00263</v>
+        <v>0.002229</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.000101</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.4E-05</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.006348</v>
+        <v>0.004302</v>
       </c>
       <c r="H25">
-        <v>1.1E-05</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.499999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.000108</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.6E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.3E-05</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>8.7E-05</v>
+        <v>0.001232</v>
       </c>
       <c r="P25">
-        <v>0.000123</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.000208</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.000123</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.000124</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.001318</v>
+        <v>0.003559</v>
       </c>
       <c r="U25">
-        <v>3.6E-05</v>
+        <v>0.0009970000000000001</v>
       </c>
       <c r="V25">
-        <v>3.7E-05</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1.2E-05</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.3E-05</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0.001277</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.006343</v>
+        <v>0.002523</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3457,25 +3457,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.001275</v>
+        <v>0.000508</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.001274</v>
+        <v>0.001506</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3644,82 +3644,82 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="D28">
-        <v>0.001273</v>
+        <v>0.001252</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="G28">
-        <v>0.003808</v>
+        <v>0.001252</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.000724</v>
       </c>
       <c r="K28">
-        <v>0.006343</v>
+        <v>0.003051</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.00526</v>
       </c>
       <c r="N28">
-        <v>0.001262</v>
+        <v>0.002757</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.001261</v>
+        <v>0.002014</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.001271</v>
       </c>
       <c r="S28">
-        <v>0.00254</v>
+        <v>0.001017</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.001506</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.008932000000000001</v>
+        <v>0.000508</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3731,13 +3731,13 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3751,82 +3751,82 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>0.000343</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="D29">
-        <v>0.00039</v>
+        <v>0.001525</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.000763</v>
       </c>
       <c r="F29">
-        <v>9.500000000000001E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="H29">
-        <v>4.8E-05</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.00029</v>
+        <v>0.000254</v>
       </c>
       <c r="J29">
-        <v>0.000437</v>
+        <v>0.000743</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.000148</v>
+        <v>0.001252</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9.899999999999999E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O29">
-        <v>0.002885</v>
+        <v>0.003735</v>
       </c>
       <c r="P29">
-        <v>0.000496</v>
+        <v>0.000254</v>
       </c>
       <c r="Q29">
-        <v>0.000833</v>
+        <v>0.001271</v>
       </c>
       <c r="R29">
         <v>0.000489</v>
       </c>
       <c r="S29">
-        <v>0.000488</v>
+        <v>0.002777</v>
       </c>
       <c r="T29">
-        <v>0.000198</v>
+        <v>0.001017</v>
       </c>
       <c r="U29">
-        <v>0.000148</v>
+        <v>0.000254</v>
       </c>
       <c r="V29">
-        <v>0.000147</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>4.7E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>4.8E-05</v>
+        <v>0.000763</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.001259</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.003774</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3965,70 +3965,70 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>8.6E-05</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.000724</v>
       </c>
       <c r="D31">
-        <v>9.7E-05</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.4E-05</v>
+        <v>0.001252</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1.3E-05</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>7.4E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="J31">
-        <v>0.000111</v>
+        <v>0.000508</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3.7E-05</v>
+        <v>0.000489</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2.4E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O31">
-        <v>8.7E-05</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.000126</v>
+        <v>0.000254</v>
       </c>
       <c r="Q31">
-        <v>0.000212</v>
+        <v>0.000254</v>
       </c>
       <c r="R31">
-        <v>0.000124</v>
+        <v>0.000508</v>
       </c>
       <c r="S31">
-        <v>0.000124</v>
+        <v>0.001486</v>
       </c>
       <c r="T31">
-        <v>0.001323</v>
+        <v>0.001017</v>
       </c>
       <c r="U31">
-        <v>3.7E-05</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>3.6E-05</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1.2E-05</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.001271</v>
+        <v>0.001017</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>1.2E-05</v>
+        <v>0.000254</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4072,70 +4072,70 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>0.00085</v>
+        <v>0.000254</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="D32">
-        <v>0.0009829999999999999</v>
+        <v>0.002034</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="F32">
-        <v>0.002788</v>
+        <v>0.000508</v>
       </c>
       <c r="G32">
-        <v>0.003829</v>
+        <v>0.000489</v>
       </c>
       <c r="H32">
-        <v>0.000125</v>
+        <v>0.000763</v>
       </c>
       <c r="I32">
-        <v>0.000733</v>
+        <v>0.000254</v>
       </c>
       <c r="J32">
-        <v>0.001106</v>
+        <v>0.001252</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="L32">
-        <v>0.000364</v>
+        <v>0.000254</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.000489</v>
       </c>
       <c r="N32">
-        <v>0.000245</v>
+        <v>0.001017</v>
       </c>
       <c r="O32">
-        <v>0.003401</v>
+        <v>0.002796</v>
       </c>
       <c r="P32">
-        <v>0.001232</v>
+        <v>0.000763</v>
       </c>
       <c r="Q32">
-        <v>0.002081</v>
+        <v>0.001252</v>
       </c>
       <c r="R32">
-        <v>0.001219</v>
+        <v>0.001017</v>
       </c>
       <c r="S32">
-        <v>0.002513</v>
+        <v>0.001506</v>
       </c>
       <c r="T32">
-        <v>0.003016</v>
+        <v>0.003246</v>
       </c>
       <c r="U32">
-        <v>0.000359</v>
+        <v>0.000254</v>
       </c>
       <c r="V32">
-        <v>0.000364</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.000123</v>
+        <v>0.000254</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.000121</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>0.000254</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -4513,97 +4513,97 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>33</v>
@@ -4617,85 +4617,85 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.000855</v>
+        <v>0.000508</v>
       </c>
       <c r="C2">
-        <v>0.001269</v>
+        <v>0.002034</v>
       </c>
       <c r="D2">
-        <v>0.007346</v>
+        <v>0.00528</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="F2">
-        <v>0.007886000000000001</v>
+        <v>0.001799</v>
       </c>
       <c r="G2">
-        <v>0.003811</v>
+        <v>0.00176</v>
       </c>
       <c r="H2">
-        <v>0.005226</v>
+        <v>0.002073</v>
       </c>
       <c r="I2">
-        <v>0.008378999999999999</v>
+        <v>0.006062</v>
       </c>
       <c r="J2">
-        <v>0.001098</v>
+        <v>0.001252</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000704</v>
       </c>
       <c r="L2">
-        <v>0.00929</v>
+        <v>0.007118</v>
       </c>
       <c r="M2">
-        <v>0.005096</v>
+        <v>0.009074</v>
       </c>
       <c r="N2">
-        <v>0.004058</v>
+        <v>0.002816</v>
       </c>
       <c r="O2">
-        <v>0.013616</v>
+        <v>0.00438</v>
       </c>
       <c r="P2">
-        <v>0.001234</v>
+        <v>0.001486</v>
       </c>
       <c r="Q2">
-        <v>0.004618</v>
+        <v>0.002972</v>
       </c>
       <c r="R2">
-        <v>0.001236</v>
+        <v>0.001017</v>
       </c>
       <c r="S2">
-        <v>0.003766</v>
+        <v>0.006101</v>
       </c>
       <c r="T2">
-        <v>0.001754</v>
+        <v>0.006219</v>
       </c>
       <c r="U2">
-        <v>0.000368</v>
+        <v>0.000508</v>
       </c>
       <c r="V2">
-        <v>0.000376</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.001056</v>
       </c>
       <c r="X2">
-        <v>0.007641</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00393</v>
+        <v>0.00176</v>
       </c>
       <c r="Z2">
-        <v>0.002522</v>
+        <v>0.000548</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -4704,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00012</v>
+        <v>0.000508</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.001408</v>
       </c>
       <c r="AF2">
-        <v>0.003806</v>
+        <v>0.001995</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001275</v>
+        <v>0.001995</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4766,25 +4766,25 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="P3">
-        <v>0.002541</v>
+        <v>0.004185</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.005104</v>
+        <v>0.001799</v>
       </c>
       <c r="S3">
-        <v>0.001278</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002557</v>
+        <v>0.001212</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.009934</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.001212</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -4831,70 +4831,70 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.006735</v>
+        <v>0.005241</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="D4">
-        <v>0.000392</v>
+        <v>0.000235</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="F4">
-        <v>9.500000000000001E-05</v>
+        <v>0.000743</v>
       </c>
       <c r="G4">
-        <v>0.006356</v>
+        <v>0.004928</v>
       </c>
       <c r="H4">
-        <v>5.1E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000294</v>
+        <v>0.000469</v>
       </c>
       <c r="J4">
-        <v>0.006793</v>
+        <v>0.00352</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001423</v>
+        <v>0.000508</v>
       </c>
       <c r="M4">
-        <v>0.005101</v>
+        <v>0.000508</v>
       </c>
       <c r="N4">
-        <v>9.6E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O4">
-        <v>0.007939999999999999</v>
+        <v>0.001252</v>
       </c>
       <c r="P4">
-        <v>0.003056</v>
+        <v>0.009074</v>
       </c>
       <c r="Q4">
-        <v>0.000825</v>
+        <v>0.001291</v>
       </c>
       <c r="R4">
-        <v>0.000489</v>
+        <v>0.001212</v>
       </c>
       <c r="S4">
-        <v>0.001753</v>
+        <v>0.005124</v>
       </c>
       <c r="T4">
-        <v>0.000192</v>
+        <v>0.000821</v>
       </c>
       <c r="U4">
-        <v>0.00267</v>
+        <v>0.001564</v>
       </c>
       <c r="V4">
-        <v>0.000148</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -4903,28 +4903,28 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>4.9E-05</v>
+        <v>0.000235</v>
       </c>
       <c r="Z4">
-        <v>0.001281</v>
+        <v>0.000548</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006348</v>
+        <v>0.004459</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>4.7E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>0.003795</v>
+        <v>0.000235</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4965,31 +4965,31 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="P5">
-        <v>0.005094</v>
+        <v>0.012477</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="R5">
-        <v>0.002539</v>
+        <v>0.001643</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5045,25 +5045,25 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.006366</v>
+        <v>0.006219</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.000548</v>
       </c>
       <c r="E6">
-        <v>0.00128</v>
+        <v>0.000548</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.005071</v>
+        <v>0.006062</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5072,46 +5072,46 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.003129</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.002548</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.000548</v>
       </c>
       <c r="N6">
-        <v>0.001266</v>
+        <v>0.000235</v>
       </c>
       <c r="O6">
-        <v>0.001276</v>
+        <v>0.002777</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.00614</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.00127</v>
+        <v>0.000274</v>
       </c>
       <c r="S6">
-        <v>0.001286</v>
+        <v>0.000274</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.002738</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001212</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -5152,85 +5152,85 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>0.003226</v>
+        <v>0.000274</v>
       </c>
       <c r="C7">
-        <v>0.001276</v>
+        <v>0.003755</v>
       </c>
       <c r="D7">
-        <v>0.002054</v>
+        <v>0.003207</v>
       </c>
       <c r="E7">
-        <v>0.002537</v>
+        <v>0.005045</v>
       </c>
       <c r="F7">
-        <v>0.002722</v>
+        <v>0.002542</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.001604</v>
       </c>
       <c r="H7">
-        <v>0.0001</v>
+        <v>0.001486</v>
       </c>
       <c r="I7">
-        <v>0.000584</v>
+        <v>0.003364</v>
       </c>
       <c r="J7">
-        <v>0.000869</v>
+        <v>0.001291</v>
       </c>
       <c r="K7">
-        <v>0.006332</v>
+        <v>0.001252</v>
       </c>
       <c r="L7">
-        <v>0.000291</v>
+        <v>0.002308</v>
       </c>
       <c r="M7">
-        <v>0.002546</v>
+        <v>0.009426</v>
       </c>
       <c r="N7">
-        <v>0.001486</v>
+        <v>0.005241</v>
       </c>
       <c r="O7">
-        <v>0.019734</v>
+        <v>0.011147</v>
       </c>
       <c r="P7">
-        <v>0.0009840000000000001</v>
+        <v>0.001525</v>
       </c>
       <c r="Q7">
-        <v>0.00167</v>
+        <v>0.003755</v>
       </c>
       <c r="R7">
-        <v>0.007311</v>
+        <v>0.006492</v>
       </c>
       <c r="S7">
-        <v>0.008605</v>
+        <v>0.005397</v>
       </c>
       <c r="T7">
-        <v>0.009289</v>
+        <v>0.005045</v>
       </c>
       <c r="U7">
-        <v>0.000286</v>
+        <v>0.001056</v>
       </c>
       <c r="V7">
-        <v>0.000297</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.001056</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.001368</v>
+        <v>0.002464</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.001212</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -5239,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>9.7E-05</v>
+        <v>0.000235</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001275</v>
+        <v>0.000548</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="G8">
-        <v>0.006388</v>
+        <v>0.005202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5286,13 +5286,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001281</v>
+        <v>0.002073</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002559</v>
+        <v>0.001017</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5366,22 +5366,22 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>0.015252</v>
+        <v>0.005319</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="D9">
-        <v>0.005098</v>
+        <v>0.001995</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.000782</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.002229</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5390,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="J9">
-        <v>0.001262</v>
+        <v>0.000704</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5402,31 +5402,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="O9">
-        <v>0.001266</v>
+        <v>0.001721</v>
       </c>
       <c r="P9">
-        <v>0.002565</v>
+        <v>0.000743</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.001269</v>
+        <v>0.000704</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.000548</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -5447,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.001274</v>
+        <v>0.000548</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.001486</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -5476,79 +5476,79 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.00163</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.002073</v>
       </c>
       <c r="D10">
-        <v>0.009467</v>
+        <v>0.005124</v>
       </c>
       <c r="E10">
-        <v>0.00128</v>
+        <v>0.000782</v>
       </c>
       <c r="F10">
-        <v>0.002998</v>
+        <v>0.002777</v>
       </c>
       <c r="G10">
-        <v>0.001266</v>
+        <v>0.001995</v>
       </c>
       <c r="H10">
-        <v>0.000231</v>
+        <v>0.000274</v>
       </c>
       <c r="I10">
-        <v>0.010316</v>
+        <v>0.002268</v>
       </c>
       <c r="J10">
-        <v>0.0097</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="K10">
-        <v>0.008897</v>
+        <v>0.001017</v>
       </c>
       <c r="L10">
-        <v>0.003241</v>
+        <v>0.00262</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.005906</v>
       </c>
       <c r="N10">
-        <v>0.004266</v>
+        <v>0.002073</v>
       </c>
       <c r="O10">
-        <v>0.005462</v>
+        <v>0.005358</v>
       </c>
       <c r="P10">
-        <v>0.003607</v>
+        <v>0.001564</v>
       </c>
       <c r="Q10">
-        <v>0.003942</v>
+        <v>0.002581</v>
       </c>
       <c r="R10">
-        <v>0.003585</v>
+        <v>0.002581</v>
       </c>
       <c r="S10">
-        <v>0.003604</v>
+        <v>0.005163</v>
       </c>
       <c r="T10">
-        <v>0.00476</v>
+        <v>0.003637</v>
       </c>
       <c r="U10">
-        <v>0.0007069999999999999</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.000708</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.001274</v>
+        <v>0.001838</v>
       </c>
       <c r="X10">
-        <v>0.001279</v>
+        <v>0.000274</v>
       </c>
       <c r="Y10">
-        <v>0.002773</v>
+        <v>0.001643</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -5560,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.000235</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="AF10">
-        <v>0.008916</v>
+        <v>0.001252</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -5580,82 +5580,82 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>0.001361</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.000704</v>
       </c>
       <c r="D11">
-        <v>0.00156</v>
+        <v>0.000508</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.000396</v>
+        <v>0.000508</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.000194</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00118</v>
+        <v>0.000274</v>
       </c>
       <c r="J11">
-        <v>0.001764</v>
+        <v>0.000469</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.000583</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.000384</v>
+        <v>0.000235</v>
       </c>
       <c r="O11">
-        <v>0.003885</v>
+        <v>0.002034</v>
       </c>
       <c r="P11">
-        <v>0.001946</v>
+        <v>0.000743</v>
       </c>
       <c r="Q11">
-        <v>0.003328</v>
+        <v>0.001056</v>
       </c>
       <c r="R11">
-        <v>0.001968</v>
+        <v>0.000235</v>
       </c>
       <c r="S11">
-        <v>0.001935</v>
+        <v>0.001525</v>
       </c>
       <c r="T11">
-        <v>0.000789</v>
+        <v>0.000782</v>
       </c>
       <c r="U11">
-        <v>0.000592</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.0005910000000000001</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="Y11">
-        <v>0.000196</v>
+        <v>0.000274</v>
       </c>
       <c r="Z11">
-        <v>0.001274</v>
+        <v>0.000274</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -5667,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.000193</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -5687,67 +5687,67 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.007629</v>
+        <v>0.006219</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="G12">
-        <v>0.001269</v>
+        <v>0.000743</v>
       </c>
       <c r="H12">
-        <v>0.002554</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.005101</v>
+        <v>0.002542</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="P12">
-        <v>0.002519</v>
+        <v>0.012868</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.001956</v>
       </c>
       <c r="S12">
-        <v>0.001262</v>
+        <v>0.000469</v>
       </c>
       <c r="T12">
-        <v>0.006354</v>
+        <v>0.001056</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.001995</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -5794,79 +5794,79 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001281</v>
+        <v>0.003324</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="G13">
-        <v>0.00383</v>
+        <v>0.005906</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.000548</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="J13">
-        <v>0.006326</v>
+        <v>0.003911</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.001252</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.00125</v>
+        <v>0.001056</v>
       </c>
       <c r="P13">
-        <v>0.003815</v>
+        <v>0.011851</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.002972</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.001799</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -5875,19 +5875,19 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="AC13">
-        <v>0.005097</v>
+        <v>0.00571</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>0.001956</v>
       </c>
       <c r="AF13">
-        <v>0.003822</v>
+        <v>0.00133</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -5901,79 +5901,79 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.001712</v>
+        <v>0.003364</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="D14">
-        <v>0.000497</v>
+        <v>0.000548</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="F14">
-        <v>0.000123</v>
+        <v>0.000743</v>
       </c>
       <c r="G14">
-        <v>0.003801</v>
+        <v>0.00395</v>
       </c>
       <c r="H14">
-        <v>6.499999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.000368</v>
+        <v>0.000743</v>
       </c>
       <c r="J14">
-        <v>0.00438</v>
+        <v>0.004693</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.001448</v>
+        <v>0.000782</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="N14">
-        <v>0.000121</v>
+        <v>0.001056</v>
       </c>
       <c r="O14">
-        <v>0.000429</v>
+        <v>0.003246</v>
       </c>
       <c r="P14">
-        <v>0.001885</v>
+        <v>0.004341</v>
       </c>
       <c r="Q14">
-        <v>0.001053</v>
+        <v>0.000743</v>
       </c>
       <c r="R14">
-        <v>0.000607</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.000615</v>
+        <v>0.001017</v>
       </c>
       <c r="T14">
-        <v>0.000248</v>
+        <v>0.000274</v>
       </c>
       <c r="U14">
-        <v>0.000184</v>
+        <v>0.001838</v>
       </c>
       <c r="V14">
-        <v>0.000185</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>6.499999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -5982,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.001272</v>
+        <v>0.000508</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AD14">
-        <v>6.2E-05</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -6008,67 +6008,67 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>0.012744</v>
+        <v>0.012868</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.000782</v>
       </c>
       <c r="G15">
-        <v>0.00253</v>
+        <v>0.011733</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="J15">
-        <v>0.02167</v>
+        <v>0.006805</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="O15">
-        <v>0.011441</v>
+        <v>0.006571</v>
       </c>
       <c r="P15">
-        <v>0.011456</v>
+        <v>0.014354</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.001799</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.001288</v>
+        <v>0.000274</v>
       </c>
       <c r="T15">
-        <v>0.002529</v>
+        <v>0.001212</v>
       </c>
       <c r="U15">
-        <v>0.001285</v>
+        <v>0.003207</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -6089,19 +6089,19 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.016496</v>
+        <v>0.004302</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.001056</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>0.000704</v>
       </c>
       <c r="AF15">
-        <v>0.001271</v>
+        <v>0.002034</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -6115,85 +6115,85 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0.000516</v>
+        <v>0.000274</v>
       </c>
       <c r="C16">
-        <v>0.010185</v>
+        <v>0.006688</v>
       </c>
       <c r="D16">
-        <v>0.013328</v>
+        <v>0.010717</v>
       </c>
       <c r="E16">
-        <v>0.002544</v>
+        <v>0.007236</v>
       </c>
       <c r="F16">
-        <v>0.002712</v>
+        <v>0.011069</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.005006</v>
       </c>
       <c r="H16">
-        <v>0.001348</v>
+        <v>0.003559</v>
       </c>
       <c r="I16">
-        <v>0.004263</v>
+        <v>0.004498</v>
       </c>
       <c r="J16">
-        <v>0.00066</v>
+        <v>0.003246</v>
       </c>
       <c r="K16">
-        <v>0.002557</v>
+        <v>0.004224</v>
       </c>
       <c r="L16">
-        <v>0.001491</v>
+        <v>0.005593</v>
       </c>
       <c r="M16">
-        <v>0.007642</v>
+        <v>0.007705</v>
       </c>
       <c r="N16">
-        <v>0.002704</v>
+        <v>0.007783</v>
       </c>
       <c r="O16">
-        <v>0.001774</v>
+        <v>0.012164</v>
       </c>
       <c r="P16">
-        <v>0.004549</v>
+        <v>0.003285</v>
       </c>
       <c r="Q16">
-        <v>0.001249</v>
+        <v>0.004498</v>
       </c>
       <c r="R16">
-        <v>0.009624000000000001</v>
+        <v>0.007627</v>
       </c>
       <c r="S16">
-        <v>0.014693</v>
+        <v>0.01056</v>
       </c>
       <c r="T16">
-        <v>0.006687</v>
+        <v>0.009074</v>
       </c>
       <c r="U16">
-        <v>0.000218</v>
+        <v>0.000704</v>
       </c>
       <c r="V16">
-        <v>0.000221</v>
+        <v>0.000235</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="X16">
-        <v>0.001276</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>7.1E-05</v>
+        <v>0.002816</v>
       </c>
       <c r="Z16">
-        <v>0.001276</v>
+        <v>0.00176</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>0.000782</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -6202,13 +6202,13 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>7.2E-05</v>
+        <v>0.000469</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AF16">
-        <v>0.002547</v>
+        <v>0.001369</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00266</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.001262</v>
+        <v>0.002112</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -6249,16 +6249,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.001838</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="M17">
-        <v>0.001286</v>
+        <v>0.001838</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -6267,13 +6267,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.01778</v>
+        <v>0.015605</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0.007651</v>
+        <v>0.006532</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>0.001252</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -6329,10 +6329,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>0.022895</v>
+        <v>0.013063</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6341,61 +6341,61 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003838</v>
+        <v>0.000469</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="G18">
-        <v>0.007654</v>
+        <v>0.006101</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="J18">
-        <v>0.001262</v>
+        <v>0.004263</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.001279</v>
+        <v>0.000782</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.002538</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.001995</v>
       </c>
       <c r="P18">
-        <v>0.008940999999999999</v>
+        <v>0.006962</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.001212</v>
       </c>
       <c r="U18">
-        <v>0.001279</v>
+        <v>0.001525</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.000548</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -6404,16 +6404,16 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.001564</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.002548</v>
+        <v>0.000782</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -6436,100 +6436,100 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>8.4E-05</v>
+        <v>0.002073</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.8E-05</v>
+        <v>0.002855</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.4E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="G19">
-        <v>0.001276</v>
+        <v>0.004811</v>
       </c>
       <c r="H19">
-        <v>1.4E-05</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.4E-05</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001383</v>
+        <v>0.001017</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.5E-05</v>
+        <v>0.002034</v>
       </c>
       <c r="M19">
-        <v>0.003814</v>
+        <v>0.003442</v>
       </c>
       <c r="N19">
-        <v>2.5E-05</v>
+        <v>0.000548</v>
       </c>
       <c r="O19">
-        <v>0.001364</v>
+        <v>0.001252</v>
       </c>
       <c r="P19">
-        <v>0.009057000000000001</v>
+        <v>0.004224</v>
       </c>
       <c r="Q19">
-        <v>0.002729</v>
+        <v>0.005436</v>
       </c>
       <c r="R19">
-        <v>0.000124</v>
+        <v>0.001017</v>
       </c>
       <c r="S19">
-        <v>0.001393</v>
+        <v>0.001212</v>
       </c>
       <c r="T19">
-        <v>0.024181</v>
+        <v>0.009504</v>
       </c>
       <c r="U19">
-        <v>0.001315</v>
+        <v>0.000782</v>
       </c>
       <c r="V19">
-        <v>0.002578</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>1.2E-05</v>
+        <v>0.000469</v>
       </c>
       <c r="Z19">
-        <v>0.002537</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.002425</v>
       </c>
       <c r="AD19">
-        <v>1.4E-05</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AF19">
-        <v>0.001281</v>
+        <v>0.004146</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -6543,79 +6543,79 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>0.007344</v>
+        <v>0.004654</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="D20">
-        <v>0.008718</v>
+        <v>0.003168</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.000271</v>
+        <v>0.000235</v>
       </c>
       <c r="G20">
-        <v>0.002552</v>
+        <v>0.005241</v>
       </c>
       <c r="H20">
-        <v>0.000128</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.000797</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.015196</v>
+        <v>0.004028</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.001673</v>
+        <v>0.001056</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.000271</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.003493</v>
+        <v>0.002464</v>
       </c>
       <c r="P20">
-        <v>0.007705</v>
+        <v>0.01627</v>
       </c>
       <c r="Q20">
-        <v>0.002297</v>
+        <v>0.000274</v>
       </c>
       <c r="R20">
-        <v>0.005151</v>
+        <v>0.003755</v>
       </c>
       <c r="S20">
-        <v>0.002636</v>
+        <v>0.000508</v>
       </c>
       <c r="T20">
-        <v>0.000536</v>
+        <v>0.000235</v>
       </c>
       <c r="U20">
-        <v>0.001671</v>
+        <v>0.001721</v>
       </c>
       <c r="V20">
-        <v>0.000406</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.000129</v>
+        <v>0.000235</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -6624,19 +6624,19 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.001291</v>
       </c>
       <c r="AC20">
-        <v>0.002538</v>
+        <v>0.007939999999999999</v>
       </c>
       <c r="AD20">
-        <v>0.000133</v>
+        <v>0.000508</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -6653,82 +6653,82 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.002073</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.001017</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.001525</v>
       </c>
       <c r="G21">
-        <v>0.001278</v>
+        <v>0.000469</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002073</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.000548</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="L21">
-        <v>0.001268</v>
+        <v>0.001252</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.001291</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.002268</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.001564</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.00176</v>
       </c>
       <c r="R21">
-        <v>0.001279</v>
+        <v>0.000782</v>
       </c>
       <c r="S21">
-        <v>0.002534</v>
+        <v>0.001291</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.001056</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>0.001291</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.002539</v>
+        <v>0.001525</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AA21">
-        <v>0.001271</v>
+        <v>0.000235</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.00384</v>
+        <v>0.003324</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002538</v>
+        <v>0.000274</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.001288</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.002538</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -6864,79 +6864,79 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.000691</v>
+        <v>0.000235</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="D23">
-        <v>0.000781</v>
+        <v>0.000235</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.000197</v>
+        <v>0.000274</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9.6E-05</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.000589</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.000871</v>
+        <v>0.000235</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.000296</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="N23">
-        <v>0.000201</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.000686</v>
+        <v>0.000235</v>
       </c>
       <c r="P23">
-        <v>0.0009890000000000001</v>
+        <v>0.004263</v>
       </c>
       <c r="Q23">
-        <v>0.001673</v>
+        <v>0.000235</v>
       </c>
       <c r="R23">
-        <v>0.0009700000000000001</v>
+        <v>0.000235</v>
       </c>
       <c r="S23">
-        <v>0.000974</v>
+        <v>0.000469</v>
       </c>
       <c r="T23">
-        <v>0.000399</v>
+        <v>0.000469</v>
       </c>
       <c r="U23">
-        <v>0.000295</v>
+        <v>0.000704</v>
       </c>
       <c r="V23">
-        <v>0.000295</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>9.7E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>9.500000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001266</v>
+        <v>0.000235</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.008867999999999999</v>
+        <v>0.000235</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -7078,70 +7078,70 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.002639</v>
+        <v>0.002229</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.899999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.5E-05</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.006345</v>
+        <v>0.00438</v>
       </c>
       <c r="H25">
-        <v>1.1E-05</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.6E-05</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.000109</v>
+        <v>0.001017</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.5E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.3E-05</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>8.8E-05</v>
+        <v>0.001252</v>
       </c>
       <c r="P25">
-        <v>0.000122</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.000208</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.000122</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.001324</v>
+        <v>0.00352</v>
       </c>
       <c r="U25">
-        <v>3.5E-05</v>
+        <v>0.0009389999999999999</v>
       </c>
       <c r="V25">
-        <v>3.7E-05</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1.2E-05</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.4E-05</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0.001273</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.006351</v>
+        <v>0.002503</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -7212,25 +7212,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.001276</v>
+        <v>0.000469</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.000782</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.000782</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.001277</v>
+        <v>0.001564</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.001281</v>
+        <v>0.001212</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -7399,82 +7399,82 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="D28">
-        <v>0.001272</v>
+        <v>0.001252</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.000782</v>
       </c>
       <c r="G28">
-        <v>0.003815</v>
+        <v>0.001291</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.000704</v>
       </c>
       <c r="K28">
-        <v>0.006343</v>
+        <v>0.003051</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.005202</v>
       </c>
       <c r="N28">
-        <v>0.001258</v>
+        <v>0.002738</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.001271</v>
+        <v>0.001995</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.00133</v>
       </c>
       <c r="S28">
-        <v>0.002543</v>
+        <v>0.001017</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.001486</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.008947</v>
+        <v>0.000548</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -7506,82 +7506,82 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>0.000345</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="D29">
-        <v>0.000393</v>
+        <v>0.001643</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="F29">
-        <v>9.500000000000001E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="H29">
-        <v>4.7E-05</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.000295</v>
+        <v>0.000235</v>
       </c>
       <c r="J29">
-        <v>0.000441</v>
+        <v>0.000704</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.000151</v>
+        <v>0.001252</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9.899999999999999E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O29">
-        <v>0.002878</v>
+        <v>0.003755</v>
       </c>
       <c r="P29">
-        <v>0.000488</v>
+        <v>0.000274</v>
       </c>
       <c r="Q29">
-        <v>0.000833</v>
+        <v>0.001212</v>
       </c>
       <c r="R29">
-        <v>0.000491</v>
+        <v>0.000508</v>
       </c>
       <c r="S29">
-        <v>0.000489</v>
+        <v>0.002738</v>
       </c>
       <c r="T29">
-        <v>0.000196</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="U29">
-        <v>0.000146</v>
+        <v>0.000274</v>
       </c>
       <c r="V29">
-        <v>0.000144</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>4.7E-05</v>
+        <v>0.000548</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.001056</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>4.7E-05</v>
+        <v>0.000743</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.001256</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.003794</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -7720,70 +7720,70 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>8.500000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="D31">
-        <v>0.000101</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.3E-05</v>
+        <v>0.00133</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1.3E-05</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>7.4E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="J31">
-        <v>0.000112</v>
+        <v>0.000469</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3.8E-05</v>
+        <v>0.000469</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2.3E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="O31">
-        <v>8.500000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.000126</v>
+        <v>0.000274</v>
       </c>
       <c r="Q31">
-        <v>0.000212</v>
+        <v>0.000274</v>
       </c>
       <c r="R31">
-        <v>0.000125</v>
+        <v>0.000508</v>
       </c>
       <c r="S31">
-        <v>0.000122</v>
+        <v>0.001486</v>
       </c>
       <c r="T31">
-        <v>0.001321</v>
+        <v>0.001017</v>
       </c>
       <c r="U31">
-        <v>3.7E-05</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>3.6E-05</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -7792,13 +7792,13 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1.3E-05</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.001261</v>
+        <v>0.001056</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -7807,13 +7807,13 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>1.2E-05</v>
+        <v>0.000235</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -7827,70 +7827,70 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>0.000839</v>
+        <v>0.000235</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.000743</v>
       </c>
       <c r="D32">
-        <v>0.000987</v>
+        <v>0.001956</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.000508</v>
       </c>
       <c r="F32">
-        <v>0.002788</v>
+        <v>0.000469</v>
       </c>
       <c r="G32">
-        <v>0.003836</v>
+        <v>0.000508</v>
       </c>
       <c r="H32">
-        <v>0.000122</v>
+        <v>0.000704</v>
       </c>
       <c r="I32">
-        <v>0.000735</v>
+        <v>0.000235</v>
       </c>
       <c r="J32">
-        <v>0.001101</v>
+        <v>0.001252</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="L32">
-        <v>0.000368</v>
+        <v>0.000235</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.000469</v>
       </c>
       <c r="N32">
-        <v>0.000248</v>
+        <v>0.001017</v>
       </c>
       <c r="O32">
-        <v>0.003398</v>
+        <v>0.002699</v>
       </c>
       <c r="P32">
-        <v>0.001231</v>
+        <v>0.000704</v>
       </c>
       <c r="Q32">
-        <v>0.00209</v>
+        <v>0.001212</v>
       </c>
       <c r="R32">
-        <v>0.001223</v>
+        <v>0.001056</v>
       </c>
       <c r="S32">
-        <v>0.002509</v>
+        <v>0.001486</v>
       </c>
       <c r="T32">
-        <v>0.002996</v>
+        <v>0.003285</v>
       </c>
       <c r="U32">
-        <v>0.000358</v>
+        <v>0.000235</v>
       </c>
       <c r="V32">
-        <v>0.000365</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -7899,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.000123</v>
+        <v>0.000274</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.000235</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -7914,13 +7914,13 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.000121</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>0.000274</v>
       </c>
       <c r="AG32">
         <v>0</v>
